--- a/MasterData/11. AmortTemplateEsquire Network.xlsx
+++ b/MasterData/11. AmortTemplateEsquire Network.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Unique</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Manual Acquired Movies</t>
+  </si>
+  <si>
+    <t>UniqueKey</t>
   </si>
 </sst>
 </file>
@@ -562,13 +562,13 @@
         <v>139</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -582,13 +582,13 @@
         <v>139</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,13 +602,13 @@
         <v>139</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -622,13 +622,13 @@
         <v>139</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -642,13 +642,13 @@
         <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -662,13 +662,13 @@
         <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -682,13 +682,13 @@
         <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -702,13 +702,13 @@
         <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -722,13 +722,13 @@
         <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -742,13 +742,13 @@
         <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -762,13 +762,13 @@
         <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -782,13 +782,13 @@
         <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -802,13 +802,13 @@
         <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -842,13 +842,13 @@
         <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -862,13 +862,13 @@
         <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -882,13 +882,13 @@
         <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -902,13 +902,13 @@
         <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -922,13 +922,13 @@
         <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -942,13 +942,13 @@
         <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -962,13 +962,13 @@
         <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -982,13 +982,13 @@
         <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1002,13 +1002,13 @@
         <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1022,13 +1022,13 @@
         <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1042,13 +1042,13 @@
         <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1062,13 +1062,13 @@
         <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1082,13 +1082,13 @@
         <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1102,13 +1102,13 @@
         <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1125,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -1145,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -1165,7 +1165,7 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -1185,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -1205,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1225,7 +1225,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -1245,7 +1245,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -1265,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -1305,7 +1305,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -1325,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -1345,7 +1345,7 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -1365,7 +1365,7 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -1385,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -1405,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -1425,7 +1425,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -1525,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -1545,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -1565,7 +1565,7 @@
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -1585,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -1605,7 +1605,7 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -1625,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -1645,7 +1645,7 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -1665,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -2002,13 +2002,13 @@
         <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2022,13 +2022,13 @@
         <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2042,13 +2042,13 @@
         <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -2062,13 +2062,13 @@
         <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -2082,13 +2082,13 @@
         <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2102,13 +2102,13 @@
         <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2122,13 +2122,13 @@
         <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -2142,13 +2142,13 @@
         <v>141</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -2162,13 +2162,13 @@
         <v>141</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2182,13 +2182,13 @@
         <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2202,13 +2202,13 @@
         <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -2222,13 +2222,13 @@
         <v>141</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2242,13 +2242,13 @@
         <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2262,13 +2262,13 @@
         <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2282,13 +2282,13 @@
         <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -2302,13 +2302,13 @@
         <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -2322,13 +2322,13 @@
         <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2342,13 +2342,13 @@
         <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -2382,13 +2382,13 @@
         <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -2402,13 +2402,13 @@
         <v>141</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2422,13 +2422,13 @@
         <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -2442,13 +2442,13 @@
         <v>141</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -2462,13 +2462,13 @@
         <v>141</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -2482,13 +2482,13 @@
         <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2502,13 +2502,13 @@
         <v>141</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2522,13 +2522,13 @@
         <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2542,13 +2542,13 @@
         <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2562,13 +2562,13 @@
         <v>151</v>
       </c>
       <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
         <v>38</v>
       </c>
-      <c r="C102" t="s">
-        <v>39</v>
-      </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2582,13 +2582,13 @@
         <v>151</v>
       </c>
       <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
         <v>38</v>
       </c>
-      <c r="C103" t="s">
-        <v>39</v>
-      </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -2602,13 +2602,13 @@
         <v>151</v>
       </c>
       <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" t="s">
         <v>38</v>
       </c>
-      <c r="C104" t="s">
-        <v>39</v>
-      </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -2622,13 +2622,13 @@
         <v>151</v>
       </c>
       <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" t="s">
         <v>38</v>
       </c>
-      <c r="C105" t="s">
-        <v>39</v>
-      </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -2642,13 +2642,13 @@
         <v>151</v>
       </c>
       <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
         <v>38</v>
-      </c>
-      <c r="C106" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" t="s">
-        <v>39</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2662,13 +2662,13 @@
         <v>151</v>
       </c>
       <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
         <v>38</v>
-      </c>
-      <c r="C107" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" t="s">
-        <v>39</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -2682,13 +2682,13 @@
         <v>151</v>
       </c>
       <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
         <v>38</v>
-      </c>
-      <c r="C108" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" t="s">
-        <v>39</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -2702,13 +2702,13 @@
         <v>151</v>
       </c>
       <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
         <v>38</v>
-      </c>
-      <c r="C109" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" t="s">
-        <v>39</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -2722,10 +2722,10 @@
         <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
         <v>20</v>
@@ -2742,10 +2742,10 @@
         <v>152</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D111" t="s">
         <v>20</v>
@@ -2762,10 +2762,10 @@
         <v>152</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D112" t="s">
         <v>20</v>
@@ -2782,10 +2782,10 @@
         <v>152</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
         <v>20</v>
@@ -2802,10 +2802,10 @@
         <v>152</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
         <v>20</v>
@@ -2822,10 +2822,10 @@
         <v>152</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
         <v>20</v>
@@ -2842,10 +2842,10 @@
         <v>152</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
         <v>20</v>
@@ -2862,10 +2862,10 @@
         <v>152</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
         <v>20</v>
@@ -2882,10 +2882,10 @@
         <v>152</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
         <v>20</v>
@@ -2902,10 +2902,10 @@
         <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
         <v>20</v>
@@ -2922,10 +2922,10 @@
         <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
         <v>20</v>
@@ -2942,10 +2942,10 @@
         <v>152</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" t="s">
         <v>20</v>
@@ -2962,7 +2962,7 @@
         <v>152</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C122" t="s">
         <v>18</v>
@@ -2982,7 +2982,7 @@
         <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
@@ -3002,7 +3002,7 @@
         <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
@@ -3022,7 +3022,7 @@
         <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
         <v>18</v>
@@ -3042,10 +3042,10 @@
         <v>152</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D126" t="s">
         <v>20</v>
@@ -3062,10 +3062,10 @@
         <v>152</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
         <v>20</v>
@@ -3082,10 +3082,10 @@
         <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D128" t="s">
         <v>20</v>
@@ -3102,10 +3102,10 @@
         <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" t="s">
         <v>20</v>
@@ -3122,10 +3122,10 @@
         <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s">
         <v>20</v>
@@ -3142,10 +3142,10 @@
         <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D131" t="s">
         <v>20</v>
@@ -3162,10 +3162,10 @@
         <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D132" t="s">
         <v>20</v>
@@ -3182,10 +3182,10 @@
         <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s">
         <v>20</v>
@@ -3202,10 +3202,10 @@
         <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
         <v>20</v>
@@ -3222,10 +3222,10 @@
         <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
         <v>20</v>
@@ -3242,10 +3242,10 @@
         <v>152</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
         <v>20</v>
@@ -3262,10 +3262,10 @@
         <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
         <v>20</v>
@@ -3282,7 +3282,7 @@
         <v>152</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
         <v>20</v>
@@ -3302,7 +3302,7 @@
         <v>152</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
         <v>20</v>
@@ -3322,7 +3322,7 @@
         <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
         <v>20</v>
@@ -3342,7 +3342,7 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
         <v>20</v>
@@ -3362,10 +3362,10 @@
         <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D142" t="s">
         <v>20</v>
@@ -3382,10 +3382,10 @@
         <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D143" t="s">
         <v>20</v>
@@ -3402,10 +3402,10 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D144" t="s">
         <v>20</v>
@@ -3422,10 +3422,10 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D145" t="s">
         <v>20</v>
@@ -3442,7 +3442,7 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -3462,7 +3462,7 @@
         <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
@@ -3482,7 +3482,7 @@
         <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
@@ -3502,7 +3502,7 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
@@ -3522,7 +3522,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C150" t="s">
         <v>16</v>
@@ -3542,7 +3542,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C151" t="s">
         <v>16</v>
@@ -3562,7 +3562,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -3582,7 +3582,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
@@ -3602,7 +3602,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
         <v>17</v>
@@ -3622,7 +3622,7 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
@@ -3642,7 +3642,7 @@
         <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
@@ -3662,7 +3662,7 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
@@ -3682,10 +3682,10 @@
         <v>152</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D158" t="s">
         <v>20</v>
@@ -3702,10 +3702,10 @@
         <v>152</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D159" t="s">
         <v>20</v>
@@ -3722,10 +3722,10 @@
         <v>152</v>
       </c>
       <c r="B160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D160" t="s">
         <v>20</v>
@@ -3742,10 +3742,10 @@
         <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D161" t="s">
         <v>20</v>
@@ -3762,13 +3762,13 @@
         <v>153</v>
       </c>
       <c r="B162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -3782,13 +3782,13 @@
         <v>153</v>
       </c>
       <c r="B163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -3802,13 +3802,13 @@
         <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C164" t="s">
         <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -3822,13 +3822,13 @@
         <v>153</v>
       </c>
       <c r="B165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C165" t="s">
         <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -3842,10 +3842,10 @@
         <v>154</v>
       </c>
       <c r="B166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D166" t="s">
         <v>20</v>
@@ -3862,10 +3862,10 @@
         <v>154</v>
       </c>
       <c r="B167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D167" t="s">
         <v>20</v>
@@ -3882,10 +3882,10 @@
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D168" t="s">
         <v>20</v>
@@ -3902,10 +3902,10 @@
         <v>154</v>
       </c>
       <c r="B169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D169" t="s">
         <v>20</v>
@@ -3922,10 +3922,10 @@
         <v>154</v>
       </c>
       <c r="B170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" t="s">
         <v>20</v>
@@ -3942,10 +3942,10 @@
         <v>154</v>
       </c>
       <c r="B171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" t="s">
         <v>20</v>
@@ -3962,7 +3962,7 @@
         <v>154</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C172" t="s">
         <v>18</v>
@@ -3982,7 +3982,7 @@
         <v>154</v>
       </c>
       <c r="B173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C173" t="s">
         <v>18</v>
@@ -4002,10 +4002,10 @@
         <v>154</v>
       </c>
       <c r="B174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D174" t="s">
         <v>20</v>
@@ -4022,10 +4022,10 @@
         <v>154</v>
       </c>
       <c r="B175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D175" t="s">
         <v>20</v>
@@ -4042,10 +4042,10 @@
         <v>154</v>
       </c>
       <c r="B176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D176" t="s">
         <v>20</v>
@@ -4062,10 +4062,10 @@
         <v>154</v>
       </c>
       <c r="B177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D177" t="s">
         <v>20</v>
@@ -4082,10 +4082,10 @@
         <v>154</v>
       </c>
       <c r="B178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D178" t="s">
         <v>20</v>
@@ -4102,10 +4102,10 @@
         <v>154</v>
       </c>
       <c r="B179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D179" t="s">
         <v>20</v>
@@ -4122,7 +4122,7 @@
         <v>154</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C180" t="s">
         <v>20</v>
@@ -4142,7 +4142,7 @@
         <v>154</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C181" t="s">
         <v>20</v>
@@ -4162,10 +4162,10 @@
         <v>154</v>
       </c>
       <c r="B182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D182" t="s">
         <v>20</v>
@@ -4182,10 +4182,10 @@
         <v>154</v>
       </c>
       <c r="B183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D183" t="s">
         <v>20</v>
@@ -4202,7 +4202,7 @@
         <v>154</v>
       </c>
       <c r="B184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C184" t="s">
         <v>15</v>
@@ -4222,7 +4222,7 @@
         <v>154</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
         <v>15</v>
@@ -4242,7 +4242,7 @@
         <v>154</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -4262,7 +4262,7 @@
         <v>154</v>
       </c>
       <c r="B187" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
@@ -4282,7 +4282,7 @@
         <v>154</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s">
         <v>17</v>
@@ -4302,7 +4302,7 @@
         <v>154</v>
       </c>
       <c r="B189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C189" t="s">
         <v>17</v>
@@ -4322,10 +4322,10 @@
         <v>154</v>
       </c>
       <c r="B190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
         <v>20</v>
@@ -4342,10 +4342,10 @@
         <v>154</v>
       </c>
       <c r="B191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D191" t="s">
         <v>20</v>
@@ -4362,13 +4362,13 @@
         <v>155</v>
       </c>
       <c r="B192" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D192" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -4382,13 +4382,13 @@
         <v>155</v>
       </c>
       <c r="B193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -4402,13 +4402,13 @@
         <v>155</v>
       </c>
       <c r="B194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E194">
         <v>3</v>
@@ -4422,13 +4422,13 @@
         <v>155</v>
       </c>
       <c r="B195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E195">
         <v>4</v>
@@ -4442,13 +4442,13 @@
         <v>155</v>
       </c>
       <c r="B196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C196" t="s">
         <v>20</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -4462,13 +4462,13 @@
         <v>155</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C197" t="s">
         <v>20</v>
       </c>
       <c r="D197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -4482,13 +4482,13 @@
         <v>155</v>
       </c>
       <c r="B198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C198" t="s">
         <v>20</v>
       </c>
       <c r="D198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E198">
         <v>3</v>
@@ -4502,13 +4502,13 @@
         <v>155</v>
       </c>
       <c r="B199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C199" t="s">
         <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E199">
         <v>4</v>
@@ -4522,13 +4522,13 @@
         <v>155</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C200" t="s">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -4542,13 +4542,13 @@
         <v>155</v>
       </c>
       <c r="B201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C201" t="s">
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -4562,13 +4562,13 @@
         <v>155</v>
       </c>
       <c r="B202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C202" t="s">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E202">
         <v>3</v>
@@ -4582,13 +4582,13 @@
         <v>155</v>
       </c>
       <c r="B203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C203" t="s">
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E203">
         <v>4</v>
@@ -4602,13 +4602,13 @@
         <v>156</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -4622,13 +4622,13 @@
         <v>156</v>
       </c>
       <c r="B205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E205">
         <v>2</v>
@@ -4642,13 +4642,13 @@
         <v>156</v>
       </c>
       <c r="B206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E206">
         <v>3</v>
@@ -4662,13 +4662,13 @@
         <v>156</v>
       </c>
       <c r="B207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E207">
         <v>4</v>
@@ -4682,13 +4682,13 @@
         <v>156</v>
       </c>
       <c r="B208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C208" t="s">
         <v>20</v>
       </c>
       <c r="D208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -4702,13 +4702,13 @@
         <v>156</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C209" t="s">
         <v>20</v>
       </c>
       <c r="D209" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -4722,13 +4722,13 @@
         <v>156</v>
       </c>
       <c r="B210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C210" t="s">
         <v>20</v>
       </c>
       <c r="D210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -4742,13 +4742,13 @@
         <v>156</v>
       </c>
       <c r="B211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C211" t="s">
         <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -4762,10 +4762,10 @@
         <v>157</v>
       </c>
       <c r="B212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D212" t="s">
         <v>20</v>
@@ -4782,10 +4782,10 @@
         <v>157</v>
       </c>
       <c r="B213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D213" t="s">
         <v>20</v>
@@ -4802,10 +4802,10 @@
         <v>157</v>
       </c>
       <c r="B214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D214" t="s">
         <v>20</v>
@@ -4822,10 +4822,10 @@
         <v>157</v>
       </c>
       <c r="B215" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D215" t="s">
         <v>20</v>
@@ -4842,10 +4842,10 @@
         <v>157</v>
       </c>
       <c r="B216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D216" t="s">
         <v>20</v>
@@ -4862,10 +4862,10 @@
         <v>157</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D217" t="s">
         <v>20</v>
@@ -4882,10 +4882,10 @@
         <v>157</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
         <v>20</v>
@@ -4902,10 +4902,10 @@
         <v>157</v>
       </c>
       <c r="B219" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D219" t="s">
         <v>20</v>
@@ -4922,10 +4922,10 @@
         <v>157</v>
       </c>
       <c r="B220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D220" t="s">
         <v>20</v>
@@ -4942,10 +4942,10 @@
         <v>157</v>
       </c>
       <c r="B221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D221" t="s">
         <v>20</v>
@@ -4962,10 +4962,10 @@
         <v>157</v>
       </c>
       <c r="B222" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D222" t="s">
         <v>20</v>
@@ -4982,10 +4982,10 @@
         <v>157</v>
       </c>
       <c r="B223" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D223" t="s">
         <v>20</v>
@@ -5002,10 +5002,10 @@
         <v>157</v>
       </c>
       <c r="B224" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D224" t="s">
         <v>20</v>
@@ -5022,10 +5022,10 @@
         <v>157</v>
       </c>
       <c r="B225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D225" t="s">
         <v>20</v>
@@ -5042,10 +5042,10 @@
         <v>157</v>
       </c>
       <c r="B226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D226" t="s">
         <v>20</v>
@@ -5062,7 +5062,7 @@
         <v>157</v>
       </c>
       <c r="B227" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C227" t="s">
         <v>18</v>
@@ -5082,7 +5082,7 @@
         <v>157</v>
       </c>
       <c r="B228" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C228" t="s">
         <v>18</v>
@@ -5102,7 +5102,7 @@
         <v>157</v>
       </c>
       <c r="B229" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C229" t="s">
         <v>18</v>
@@ -5122,7 +5122,7 @@
         <v>157</v>
       </c>
       <c r="B230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C230" t="s">
         <v>18</v>
@@ -5142,7 +5142,7 @@
         <v>157</v>
       </c>
       <c r="B231" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C231" t="s">
         <v>18</v>
@@ -5162,10 +5162,10 @@
         <v>157</v>
       </c>
       <c r="B232" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D232" t="s">
         <v>20</v>
@@ -5182,10 +5182,10 @@
         <v>157</v>
       </c>
       <c r="B233" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D233" t="s">
         <v>20</v>
@@ -5202,10 +5202,10 @@
         <v>157</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D234" t="s">
         <v>20</v>
@@ -5222,10 +5222,10 @@
         <v>157</v>
       </c>
       <c r="B235" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D235" t="s">
         <v>20</v>
@@ -5242,10 +5242,10 @@
         <v>157</v>
       </c>
       <c r="B236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D236" t="s">
         <v>20</v>
@@ -5262,10 +5262,10 @@
         <v>157</v>
       </c>
       <c r="B237" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D237" t="s">
         <v>20</v>
@@ -5282,10 +5282,10 @@
         <v>157</v>
       </c>
       <c r="B238" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D238" t="s">
         <v>20</v>
@@ -5302,10 +5302,10 @@
         <v>157</v>
       </c>
       <c r="B239" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D239" t="s">
         <v>20</v>
@@ -5322,10 +5322,10 @@
         <v>157</v>
       </c>
       <c r="B240" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C240" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D240" t="s">
         <v>20</v>
@@ -5342,10 +5342,10 @@
         <v>157</v>
       </c>
       <c r="B241" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C241" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D241" t="s">
         <v>20</v>
@@ -5362,10 +5362,10 @@
         <v>157</v>
       </c>
       <c r="B242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C242" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D242" t="s">
         <v>20</v>
@@ -5382,10 +5382,10 @@
         <v>157</v>
       </c>
       <c r="B243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C243" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D243" t="s">
         <v>20</v>
@@ -5402,10 +5402,10 @@
         <v>157</v>
       </c>
       <c r="B244" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C244" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D244" t="s">
         <v>20</v>
@@ -5422,10 +5422,10 @@
         <v>157</v>
       </c>
       <c r="B245" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D245" t="s">
         <v>20</v>
@@ -5442,10 +5442,10 @@
         <v>157</v>
       </c>
       <c r="B246" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C246" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D246" t="s">
         <v>20</v>
@@ -5462,7 +5462,7 @@
         <v>157</v>
       </c>
       <c r="B247" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C247" t="s">
         <v>20</v>
@@ -5482,7 +5482,7 @@
         <v>157</v>
       </c>
       <c r="B248" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C248" t="s">
         <v>20</v>
@@ -5502,7 +5502,7 @@
         <v>157</v>
       </c>
       <c r="B249" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C249" t="s">
         <v>20</v>
@@ -5522,7 +5522,7 @@
         <v>157</v>
       </c>
       <c r="B250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C250" t="s">
         <v>20</v>
@@ -5542,7 +5542,7 @@
         <v>157</v>
       </c>
       <c r="B251" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C251" t="s">
         <v>20</v>
@@ -5562,10 +5562,10 @@
         <v>157</v>
       </c>
       <c r="B252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D252" t="s">
         <v>20</v>
@@ -5582,10 +5582,10 @@
         <v>157</v>
       </c>
       <c r="B253" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D253" t="s">
         <v>20</v>
@@ -5602,10 +5602,10 @@
         <v>157</v>
       </c>
       <c r="B254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D254" t="s">
         <v>20</v>
@@ -5622,10 +5622,10 @@
         <v>157</v>
       </c>
       <c r="B255" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C255" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D255" t="s">
         <v>20</v>
@@ -5642,10 +5642,10 @@
         <v>157</v>
       </c>
       <c r="B256" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C256" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D256" t="s">
         <v>20</v>
@@ -5662,7 +5662,7 @@
         <v>157</v>
       </c>
       <c r="B257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C257" t="s">
         <v>15</v>
@@ -5682,7 +5682,7 @@
         <v>157</v>
       </c>
       <c r="B258" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C258" t="s">
         <v>15</v>
@@ -5702,7 +5702,7 @@
         <v>157</v>
       </c>
       <c r="B259" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C259" t="s">
         <v>15</v>
@@ -5722,7 +5722,7 @@
         <v>157</v>
       </c>
       <c r="B260" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C260" t="s">
         <v>15</v>
@@ -5742,7 +5742,7 @@
         <v>157</v>
       </c>
       <c r="B261" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C261" t="s">
         <v>15</v>
@@ -5762,7 +5762,7 @@
         <v>157</v>
       </c>
       <c r="B262" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C262" t="s">
         <v>16</v>
@@ -5782,7 +5782,7 @@
         <v>157</v>
       </c>
       <c r="B263" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C263" t="s">
         <v>16</v>
@@ -5802,7 +5802,7 @@
         <v>157</v>
       </c>
       <c r="B264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C264" t="s">
         <v>16</v>
@@ -5822,7 +5822,7 @@
         <v>157</v>
       </c>
       <c r="B265" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C265" t="s">
         <v>16</v>
@@ -5842,7 +5842,7 @@
         <v>157</v>
       </c>
       <c r="B266" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C266" t="s">
         <v>16</v>
@@ -5862,7 +5862,7 @@
         <v>157</v>
       </c>
       <c r="B267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C267" t="s">
         <v>17</v>
@@ -5882,7 +5882,7 @@
         <v>157</v>
       </c>
       <c r="B268" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C268" t="s">
         <v>17</v>
@@ -5902,7 +5902,7 @@
         <v>157</v>
       </c>
       <c r="B269" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C269" t="s">
         <v>17</v>
@@ -5922,7 +5922,7 @@
         <v>157</v>
       </c>
       <c r="B270" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C270" t="s">
         <v>17</v>
@@ -5942,7 +5942,7 @@
         <v>157</v>
       </c>
       <c r="B271" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C271" t="s">
         <v>17</v>
@@ -5962,10 +5962,10 @@
         <v>157</v>
       </c>
       <c r="B272" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C272" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D272" t="s">
         <v>20</v>
@@ -5982,10 +5982,10 @@
         <v>157</v>
       </c>
       <c r="B273" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C273" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D273" t="s">
         <v>20</v>
@@ -6002,10 +6002,10 @@
         <v>157</v>
       </c>
       <c r="B274" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C274" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D274" t="s">
         <v>20</v>
@@ -6022,10 +6022,10 @@
         <v>157</v>
       </c>
       <c r="B275" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C275" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D275" t="s">
         <v>20</v>
@@ -6042,10 +6042,10 @@
         <v>157</v>
       </c>
       <c r="B276" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C276" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D276" t="s">
         <v>20</v>
@@ -6062,10 +6062,10 @@
         <v>170</v>
       </c>
       <c r="B277" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C277" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D277" t="s">
         <v>19</v>
@@ -6082,10 +6082,10 @@
         <v>170</v>
       </c>
       <c r="B278" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D278" t="s">
         <v>19</v>
@@ -6102,10 +6102,10 @@
         <v>170</v>
       </c>
       <c r="B279" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C279" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D279" t="s">
         <v>19</v>
@@ -6122,10 +6122,10 @@
         <v>170</v>
       </c>
       <c r="B280" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C280" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D280" t="s">
         <v>19</v>
@@ -6142,10 +6142,10 @@
         <v>170</v>
       </c>
       <c r="B281" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C281" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D281" t="s">
         <v>19</v>
@@ -6162,10 +6162,10 @@
         <v>170</v>
       </c>
       <c r="B282" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C282" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D282" t="s">
         <v>19</v>
@@ -6182,10 +6182,10 @@
         <v>170</v>
       </c>
       <c r="B283" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C283" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D283" t="s">
         <v>19</v>
@@ -6202,10 +6202,10 @@
         <v>170</v>
       </c>
       <c r="B284" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C284" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D284" t="s">
         <v>19</v>
@@ -6222,10 +6222,10 @@
         <v>170</v>
       </c>
       <c r="B285" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C285" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D285" t="s">
         <v>19</v>
@@ -6242,10 +6242,10 @@
         <v>170</v>
       </c>
       <c r="B286" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C286" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D286" t="s">
         <v>19</v>
@@ -6262,10 +6262,10 @@
         <v>170</v>
       </c>
       <c r="B287" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C287" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D287" t="s">
         <v>19</v>
@@ -6282,10 +6282,10 @@
         <v>170</v>
       </c>
       <c r="B288" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C288" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D288" t="s">
         <v>19</v>
@@ -6302,10 +6302,10 @@
         <v>170</v>
       </c>
       <c r="B289" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C289" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D289" t="s">
         <v>19</v>
@@ -6322,10 +6322,10 @@
         <v>170</v>
       </c>
       <c r="B290" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C290" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D290" t="s">
         <v>19</v>
@@ -6342,10 +6342,10 @@
         <v>170</v>
       </c>
       <c r="B291" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C291" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D291" t="s">
         <v>19</v>
@@ -6362,10 +6362,10 @@
         <v>170</v>
       </c>
       <c r="B292" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C292" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D292" t="s">
         <v>19</v>
@@ -6382,7 +6382,7 @@
         <v>170</v>
       </c>
       <c r="B293" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C293" t="s">
         <v>18</v>
@@ -6402,7 +6402,7 @@
         <v>170</v>
       </c>
       <c r="B294" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C294" t="s">
         <v>18</v>
@@ -6422,7 +6422,7 @@
         <v>170</v>
       </c>
       <c r="B295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C295" t="s">
         <v>18</v>
@@ -6442,7 +6442,7 @@
         <v>170</v>
       </c>
       <c r="B296" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C296" t="s">
         <v>18</v>
@@ -6462,10 +6462,10 @@
         <v>170</v>
       </c>
       <c r="B297" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C297" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D297" t="s">
         <v>19</v>
@@ -6482,10 +6482,10 @@
         <v>170</v>
       </c>
       <c r="B298" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C298" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D298" t="s">
         <v>19</v>
@@ -6502,10 +6502,10 @@
         <v>170</v>
       </c>
       <c r="B299" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C299" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D299" t="s">
         <v>19</v>
@@ -6522,10 +6522,10 @@
         <v>170</v>
       </c>
       <c r="B300" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C300" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D300" t="s">
         <v>19</v>
@@ -6542,10 +6542,10 @@
         <v>170</v>
       </c>
       <c r="B301" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C301" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D301" t="s">
         <v>19</v>
@@ -6562,10 +6562,10 @@
         <v>170</v>
       </c>
       <c r="B302" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C302" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D302" t="s">
         <v>19</v>
@@ -6582,10 +6582,10 @@
         <v>170</v>
       </c>
       <c r="B303" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C303" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D303" t="s">
         <v>19</v>
@@ -6602,10 +6602,10 @@
         <v>170</v>
       </c>
       <c r="B304" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C304" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D304" t="s">
         <v>19</v>
@@ -6622,7 +6622,7 @@
         <v>170</v>
       </c>
       <c r="B305" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C305" t="s">
         <v>20</v>
@@ -6642,7 +6642,7 @@
         <v>170</v>
       </c>
       <c r="B306" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C306" t="s">
         <v>20</v>
@@ -6662,7 +6662,7 @@
         <v>170</v>
       </c>
       <c r="B307" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C307" t="s">
         <v>20</v>
@@ -6682,7 +6682,7 @@
         <v>170</v>
       </c>
       <c r="B308" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C308" t="s">
         <v>20</v>
@@ -6702,7 +6702,7 @@
         <v>170</v>
       </c>
       <c r="B309" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C309" t="s">
         <v>15</v>
@@ -6722,7 +6722,7 @@
         <v>170</v>
       </c>
       <c r="B310" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C310" t="s">
         <v>15</v>
@@ -6742,7 +6742,7 @@
         <v>170</v>
       </c>
       <c r="B311" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C311" t="s">
         <v>15</v>
@@ -6762,7 +6762,7 @@
         <v>170</v>
       </c>
       <c r="B312" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C312" t="s">
         <v>15</v>
@@ -6782,7 +6782,7 @@
         <v>170</v>
       </c>
       <c r="B313" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C313" t="s">
         <v>16</v>
@@ -6802,7 +6802,7 @@
         <v>170</v>
       </c>
       <c r="B314" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C314" t="s">
         <v>16</v>
@@ -6822,7 +6822,7 @@
         <v>170</v>
       </c>
       <c r="B315" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C315" t="s">
         <v>16</v>
@@ -6842,7 +6842,7 @@
         <v>170</v>
       </c>
       <c r="B316" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C316" t="s">
         <v>16</v>
@@ -6862,7 +6862,7 @@
         <v>170</v>
       </c>
       <c r="B317" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C317" t="s">
         <v>17</v>
@@ -6882,7 +6882,7 @@
         <v>170</v>
       </c>
       <c r="B318" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C318" t="s">
         <v>17</v>
@@ -6902,7 +6902,7 @@
         <v>170</v>
       </c>
       <c r="B319" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C319" t="s">
         <v>17</v>
@@ -6922,7 +6922,7 @@
         <v>170</v>
       </c>
       <c r="B320" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C320" t="s">
         <v>17</v>
@@ -6942,13 +6942,13 @@
         <v>366</v>
       </c>
       <c r="B321" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C321" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D321" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -6962,13 +6962,13 @@
         <v>366</v>
       </c>
       <c r="B322" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C322" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D322" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -6982,13 +6982,13 @@
         <v>366</v>
       </c>
       <c r="B323" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C323" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D323" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -7002,13 +7002,13 @@
         <v>366</v>
       </c>
       <c r="B324" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C324" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D324" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -7030,7 +7030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7088,13 +7090,13 @@
         <v>13</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -7102,13 +7104,13 @@
         <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -7117,16 +7119,16 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>9</v>
@@ -7139,7 +7141,7 @@
         <v>139Acquired MoviesAcquired MiniSeriesAcquired Movies</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -7147,13 +7149,13 @@
         <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -7162,16 +7164,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>9</v>
@@ -7184,7 +7186,7 @@
         <v>139Acquired MoviesDocumentaryAcquired Movies</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -7192,13 +7194,13 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -7207,16 +7209,16 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>9</v>
@@ -7229,7 +7231,7 @@
         <v>139Acquired MoviesMoviesAcquired Movies</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -7237,13 +7239,13 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -7252,16 +7254,16 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>9</v>
@@ -7274,7 +7276,7 @@
         <v>139Acquired MoviesOriginalAcquired Movies</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -7282,13 +7284,13 @@
         <v>139</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -7297,16 +7299,16 @@
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>9</v>
@@ -7319,7 +7321,7 @@
         <v>139Acquired MoviesOriginal MiniSeriesAcquired Movies</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -7327,13 +7329,13 @@
         <v>139</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -7342,16 +7344,16 @@
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>9</v>
@@ -7364,7 +7366,7 @@
         <v>139Acquired MoviesSeriesAcquired Movies</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7372,13 +7374,13 @@
         <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -7387,16 +7389,16 @@
         <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>9</v>
@@ -7409,7 +7411,7 @@
         <v>139Acquired MoviesSpecialAcquired Movies</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -7420,7 +7422,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -7432,16 +7434,16 @@
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>9</v>
@@ -7454,7 +7456,7 @@
         <v>140Acquired SeriesAcquired SpecialsAcquired Series</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7465,7 +7467,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -7477,16 +7479,16 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>9</v>
@@ -7499,7 +7501,7 @@
         <v>140Acquired SeriesBio/Clip (E)Acquired Series</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -7510,7 +7512,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -7522,16 +7524,16 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>9</v>
@@ -7544,7 +7546,7 @@
         <v>140Acquired SeriesConcertAcquired Series</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -7555,7 +7557,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -7567,16 +7569,16 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>9</v>
@@ -7589,7 +7591,7 @@
         <v>140Acquired SeriesDocumentaryAcquired Series</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -7612,16 +7614,16 @@
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>9</v>
@@ -7634,10 +7636,10 @@
         <v>140Acquired SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -7648,7 +7650,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -7660,16 +7662,16 @@
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>9</v>
@@ -7682,7 +7684,7 @@
         <v>140Acquired SeriesEventsAcquired Series</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -7693,7 +7695,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -7705,16 +7707,16 @@
         <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>9</v>
@@ -7727,7 +7729,7 @@
         <v>140Acquired SeriesMoviesAcquired Series</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -7750,16 +7752,16 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>9</v>
@@ -7772,7 +7774,7 @@
         <v>140Acquired SeriesOriginal SeriesAcquired Series</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -7795,16 +7797,16 @@
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>9</v>
@@ -7817,7 +7819,7 @@
         <v>140Acquired SeriesSeriesAcquired Series</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -7840,16 +7842,16 @@
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>9</v>
@@ -7862,7 +7864,7 @@
         <v>140Acquired SeriesSpecialAcquired Series</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -7885,16 +7887,16 @@
         <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>9</v>
@@ -7907,7 +7909,7 @@
         <v>140Acquired SeriesSportsAcquired Series</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -7915,13 +7917,13 @@
         <v>141</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
@@ -7930,7 +7932,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -7952,7 +7954,7 @@
         <v>141Acquired Movies (Multiple Windows)Acquired MiniSeriesAcquired Movies</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -7960,13 +7962,13 @@
         <v>141</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
@@ -7975,7 +7977,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -7997,7 +7999,7 @@
         <v>141Acquired Movies (Multiple Windows)DocumentaryAcquired Movies</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -8005,13 +8007,13 @@
         <v>141</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
@@ -8020,7 +8022,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -8042,7 +8044,7 @@
         <v>141Acquired Movies (Multiple Windows)MoviesAcquired Movies</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -8050,13 +8052,13 @@
         <v>141</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
@@ -8065,7 +8067,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -8087,7 +8089,7 @@
         <v>141Acquired Movies (Multiple Windows)OriginalAcquired Movies</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -8095,13 +8097,13 @@
         <v>141</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
@@ -8110,7 +8112,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -8132,7 +8134,7 @@
         <v>141Acquired Movies (Multiple Windows)Original MiniSeriesAcquired Movies</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -8140,13 +8142,13 @@
         <v>141</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
@@ -8155,7 +8157,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -8177,7 +8179,7 @@
         <v>141Acquired Movies (Multiple Windows)SeriesAcquired Movies</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -8185,13 +8187,13 @@
         <v>141</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
@@ -8200,7 +8202,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -8222,7 +8224,7 @@
         <v>141Acquired Movies (Multiple Windows)SpecialAcquired Movies</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8230,22 +8232,22 @@
         <v>151</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="3">
         <v>12</v>
@@ -8267,7 +8269,7 @@
         <v>151Reality-ReturningOriginal RealityOriginal Reality</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -8275,22 +8277,22 @@
         <v>151</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="3">
         <v>12</v>
@@ -8312,7 +8314,7 @@
         <v>151Reality-ReturningOriginal SeriesOriginal Reality</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8320,22 +8322,22 @@
         <v>152</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="3">
         <v>12</v>
@@ -8357,7 +8359,7 @@
         <v>152Reality-ReturningBio/Clip (E)Original Series</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -8365,22 +8367,22 @@
         <v>152</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="3">
         <v>12</v>
@@ -8402,7 +8404,7 @@
         <v>152Reality-ReturningConcertOriginal Series</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -8410,22 +8412,22 @@
         <v>152</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="3">
         <v>12</v>
@@ -8447,7 +8449,7 @@
         <v>152Reality-ReturningDocumentaryOriginal Series</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -8455,7 +8457,7 @@
         <v>152</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>18</v>
@@ -8464,13 +8466,13 @@
         <v>20</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" s="3">
         <v>12</v>
@@ -8492,10 +8494,10 @@
         <v>152Reality-ReturningEpisodeOriginal Series</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -8503,22 +8505,22 @@
         <v>152</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" s="3">
         <v>12</v>
@@ -8540,7 +8542,7 @@
         <v>152Reality-ReturningEventsOriginal Series</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -8548,22 +8550,22 @@
         <v>152</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" s="3">
         <v>12</v>
@@ -8585,7 +8587,7 @@
         <v>152Reality-ReturningMoviesOriginal Series</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -8593,22 +8595,22 @@
         <v>152</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="3">
         <v>12</v>
@@ -8630,7 +8632,7 @@
         <v>152Reality-ReturningOriginalOriginal Series</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -8638,7 +8640,7 @@
         <v>152</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>20</v>
@@ -8647,13 +8649,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" s="3">
         <v>12</v>
@@ -8675,7 +8677,7 @@
         <v>152Reality-ReturningOriginal SeriesOriginal Series</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -8683,22 +8685,22 @@
         <v>152</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37" s="3">
         <v>12</v>
@@ -8720,7 +8722,7 @@
         <v>152Reality-ReturningPilotOriginal Series</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -8728,7 +8730,7 @@
         <v>152</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
@@ -8737,13 +8739,13 @@
         <v>20</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" s="3">
         <v>12</v>
@@ -8765,7 +8767,7 @@
         <v>152Reality-ReturningSeriesOriginal Series</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -8773,7 +8775,7 @@
         <v>152</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>16</v>
@@ -8782,13 +8784,13 @@
         <v>20</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39" s="3">
         <v>12</v>
@@ -8810,7 +8812,7 @@
         <v>152Reality-ReturningSpecialOriginal Series</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -8818,7 +8820,7 @@
         <v>152</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
@@ -8827,13 +8829,13 @@
         <v>20</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" s="3">
         <v>12</v>
@@ -8855,7 +8857,7 @@
         <v>152Reality-ReturningSportsOriginal Series</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -8863,22 +8865,22 @@
         <v>152</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H41" s="3">
         <v>12</v>
@@ -8900,7 +8902,7 @@
         <v>152Reality-ReturningTopicalsOriginal Series</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -8908,22 +8910,22 @@
         <v>153</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H42" s="3">
         <v>6</v>
@@ -8945,7 +8947,7 @@
         <v>153Reality - S1Original RealityOriginal Reality</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -8953,22 +8955,22 @@
         <v>153</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H43" s="3">
         <v>6</v>
@@ -8990,7 +8992,7 @@
         <v>153Reality - S1Original SeriesOriginal Reality</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -8998,22 +9000,22 @@
         <v>154</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H44" s="3">
         <v>6</v>
@@ -9035,7 +9037,7 @@
         <v>154Reality - S1Bio/Clip (E)Original Series</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -9043,22 +9045,22 @@
         <v>154</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H45" s="3">
         <v>6</v>
@@ -9080,7 +9082,7 @@
         <v>154Reality - S1ConcertOriginal Series</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -9088,22 +9090,22 @@
         <v>154</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46" s="3">
         <v>6</v>
@@ -9125,7 +9127,7 @@
         <v>154Reality - S1DocumentaryOriginal Series</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -9133,7 +9135,7 @@
         <v>154</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>18</v>
@@ -9142,13 +9144,13 @@
         <v>20</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H47" s="3">
         <v>6</v>
@@ -9170,10 +9172,10 @@
         <v>154Reality - S1EpisodeOriginal Series</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -9181,22 +9183,22 @@
         <v>154</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H48" s="3">
         <v>6</v>
@@ -9218,7 +9220,7 @@
         <v>154Reality - S1EventsOriginal Series</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -9226,22 +9228,22 @@
         <v>154</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" s="3">
         <v>6</v>
@@ -9263,7 +9265,7 @@
         <v>154Reality - S1MoviesOriginal Series</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -9271,22 +9273,22 @@
         <v>154</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H50" s="3">
         <v>6</v>
@@ -9308,7 +9310,7 @@
         <v>154Reality - S1OriginalOriginal Series</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -9316,7 +9318,7 @@
         <v>154</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>20</v>
@@ -9325,13 +9327,13 @@
         <v>20</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H51" s="3">
         <v>6</v>
@@ -9353,7 +9355,7 @@
         <v>154Reality - S1Original SeriesOriginal Series</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -9361,22 +9363,22 @@
         <v>154</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="3">
         <v>6</v>
@@ -9398,7 +9400,7 @@
         <v>154Reality - S1PilotOriginal Series</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -9406,7 +9408,7 @@
         <v>154</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
@@ -9415,13 +9417,13 @@
         <v>20</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H53" s="3">
         <v>6</v>
@@ -9443,7 +9445,7 @@
         <v>154Reality - S1SeriesOriginal Series</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -9451,7 +9453,7 @@
         <v>154</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>16</v>
@@ -9460,13 +9462,13 @@
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H54" s="3">
         <v>6</v>
@@ -9488,7 +9490,7 @@
         <v>154Reality - S1SpecialOriginal Series</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -9496,7 +9498,7 @@
         <v>154</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -9505,13 +9507,13 @@
         <v>20</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H55" s="3">
         <v>6</v>
@@ -9533,7 +9535,7 @@
         <v>154Reality - S1SportsOriginal Series</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -9541,22 +9543,22 @@
         <v>154</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="3">
         <v>6</v>
@@ -9578,7 +9580,7 @@
         <v>154Reality - S1TopicalsOriginal Series</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -9586,22 +9588,22 @@
         <v>155</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H57" s="3">
         <v>12</v>
@@ -9623,7 +9625,7 @@
         <v>155Style SpecialsDocumentaryStyle Specials</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -9631,22 +9633,22 @@
         <v>155</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H58" s="3">
         <v>12</v>
@@ -9668,7 +9670,7 @@
         <v>155Style SpecialsOriginal SeriesStyle Specials</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -9676,22 +9678,22 @@
         <v>155</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H59" s="3">
         <v>12</v>
@@ -9713,7 +9715,7 @@
         <v>155Style SpecialsSpecialStyle Specials</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -9721,22 +9723,22 @@
         <v>156</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="3">
         <v>12</v>
@@ -9758,7 +9760,7 @@
         <v>156Style SpecialsBio/Clip (E)Bio/Clip (E)</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -9766,22 +9768,22 @@
         <v>156</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H61" s="3">
         <v>12</v>
@@ -9803,7 +9805,7 @@
         <v>156Style SpecialsOriginal SeriesBio/Clip (E)</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -9811,22 +9813,22 @@
         <v>157</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H62" s="3">
         <v>15</v>
@@ -9848,7 +9850,7 @@
         <v>157Style FormatBio/Clip (E)Original Series</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -9856,22 +9858,22 @@
         <v>157</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H63" s="3">
         <v>15</v>
@@ -9893,7 +9895,7 @@
         <v>157Style FormatConcertOriginal Series</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -9901,22 +9903,22 @@
         <v>157</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H64" s="3">
         <v>15</v>
@@ -9938,7 +9940,7 @@
         <v>157Style FormatDocumentaryOriginal Series</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -9946,7 +9948,7 @@
         <v>157</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>18</v>
@@ -9955,13 +9957,13 @@
         <v>20</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H65" s="3">
         <v>15</v>
@@ -9983,10 +9985,10 @@
         <v>157Style FormatEpisodeOriginal Series</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -9994,22 +9996,22 @@
         <v>157</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H66" s="3">
         <v>15</v>
@@ -10031,7 +10033,7 @@
         <v>157Style FormatEventsOriginal Series</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -10039,22 +10041,22 @@
         <v>157</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H67" s="3">
         <v>15</v>
@@ -10076,7 +10078,7 @@
         <v>157Style FormatMoviesOriginal Series</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -10084,22 +10086,22 @@
         <v>157</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H68" s="3">
         <v>15</v>
@@ -10121,7 +10123,7 @@
         <v>157Style FormatOriginalOriginal Series</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -10129,7 +10131,7 @@
         <v>157</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>20</v>
@@ -10138,13 +10140,13 @@
         <v>20</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H69" s="3">
         <v>15</v>
@@ -10166,7 +10168,7 @@
         <v>157Style FormatOriginal SeriesOriginal Series</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -10174,22 +10176,22 @@
         <v>157</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H70" s="3">
         <v>15</v>
@@ -10211,7 +10213,7 @@
         <v>157Style FormatPilotOriginal Series</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -10219,7 +10221,7 @@
         <v>157</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>15</v>
@@ -10228,13 +10230,13 @@
         <v>20</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H71" s="3">
         <v>15</v>
@@ -10256,7 +10258,7 @@
         <v>157Style FormatSeriesOriginal Series</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -10264,7 +10266,7 @@
         <v>157</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>16</v>
@@ -10273,13 +10275,13 @@
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H72" s="3">
         <v>15</v>
@@ -10301,7 +10303,7 @@
         <v>157Style FormatSpecialOriginal Series</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -10309,7 +10311,7 @@
         <v>157</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>17</v>
@@ -10318,13 +10320,13 @@
         <v>20</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H73" s="3">
         <v>15</v>
@@ -10346,7 +10348,7 @@
         <v>157Style FormatSportsOriginal Series</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -10354,22 +10356,22 @@
         <v>157</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H74" s="3">
         <v>15</v>
@@ -10391,7 +10393,7 @@
         <v>157Style FormatTopicalsOriginal Series</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -10399,10 +10401,10 @@
         <v>170</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>19</v>
@@ -10414,7 +10416,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -10436,10 +10438,10 @@
         <v>170Acquired Link SeriesAcquired SpecialsAcquired Series</v>
       </c>
       <c r="N75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -10447,10 +10449,10 @@
         <v>170</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>19</v>
@@ -10462,7 +10464,7 @@
         <v>12</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -10484,10 +10486,10 @@
         <v>170Acquired Link SeriesBio/Clip (E)Acquired Series</v>
       </c>
       <c r="N76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O76" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -10495,10 +10497,10 @@
         <v>170</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>19</v>
@@ -10510,7 +10512,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -10532,10 +10534,10 @@
         <v>170Acquired Link SeriesConcertAcquired Series</v>
       </c>
       <c r="N77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O77" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -10543,10 +10545,10 @@
         <v>170</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>19</v>
@@ -10558,7 +10560,7 @@
         <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -10580,10 +10582,10 @@
         <v>170Acquired Link SeriesDocumentaryAcquired Series</v>
       </c>
       <c r="N78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -10591,7 +10593,7 @@
         <v>170</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>18</v>
@@ -10606,7 +10608,7 @@
         <v>12</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -10628,10 +10630,10 @@
         <v>170Acquired Link SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -10639,10 +10641,10 @@
         <v>170</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>19</v>
@@ -10654,7 +10656,7 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -10676,10 +10678,10 @@
         <v>170Acquired Link SeriesEventsAcquired Series</v>
       </c>
       <c r="N80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O80" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -10687,10 +10689,10 @@
         <v>170</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>19</v>
@@ -10702,7 +10704,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -10724,10 +10726,10 @@
         <v>170Acquired Link SeriesMoviesAcquired Series</v>
       </c>
       <c r="N81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O81" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -10735,7 +10737,7 @@
         <v>170</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>20</v>
@@ -10750,7 +10752,7 @@
         <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -10772,10 +10774,10 @@
         <v>170Acquired Link SeriesOriginal SeriesAcquired Series</v>
       </c>
       <c r="N82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O82" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -10783,7 +10785,7 @@
         <v>170</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>15</v>
@@ -10798,7 +10800,7 @@
         <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>170Acquired Link SeriesSeriesAcquired Series</v>
       </c>
       <c r="N83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O83" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -10831,7 +10833,7 @@
         <v>170</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>16</v>
@@ -10846,7 +10848,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -10868,10 +10870,10 @@
         <v>170Acquired Link SeriesSpecialAcquired Series</v>
       </c>
       <c r="N84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O84" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O84" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -10879,7 +10881,7 @@
         <v>170</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>17</v>
@@ -10894,7 +10896,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -10916,10 +10918,10 @@
         <v>170Acquired Link SeriesSportsAcquired Series</v>
       </c>
       <c r="N85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O85" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O85" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -10927,13 +10929,13 @@
         <v>173</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>9</v>
@@ -10942,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H86" s="3">
         <v>12</v>
@@ -10964,10 +10966,10 @@
         <v>173BlankConcertBlank</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -10975,13 +10977,13 @@
         <v>173</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>9</v>
@@ -10990,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H87" s="3">
         <v>12</v>
@@ -11012,10 +11014,10 @@
         <v>173BlankDocumentaryBlank</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -11023,13 +11025,13 @@
         <v>173</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>9</v>
@@ -11038,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H88" s="3">
         <v>12</v>
@@ -11060,10 +11062,10 @@
         <v>173BlankEventsBlank</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -11071,13 +11073,13 @@
         <v>173</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>9</v>
@@ -11086,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H89" s="3">
         <v>12</v>
@@ -11108,10 +11110,10 @@
         <v>173BlankTopicalsBlank</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -11119,22 +11121,22 @@
         <v>366</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H90" s="3">
         <v>16</v>
@@ -11156,7 +11158,7 @@
         <v>366Manual Acquired MoviesMoviesAcquired Movies</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -11209,13 +11211,13 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2)</f>
@@ -11236,7 +11238,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F64" si="0">CONCATENATE(A3,B3,C3,D3)</f>
@@ -11257,7 +11259,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11269,16 +11271,16 @@
         <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11293,13 +11295,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11311,16 +11313,16 @@
         <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11335,13 +11337,13 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11362,7 +11364,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11374,16 +11376,16 @@
         <v>139</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11398,13 +11400,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11419,13 +11421,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11437,16 +11439,16 @@
         <v>139</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11458,16 +11460,16 @@
         <v>139</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11482,13 +11484,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11500,16 +11502,16 @@
         <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11530,7 +11532,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11542,16 +11544,16 @@
         <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11563,16 +11565,16 @@
         <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11584,7 +11586,7 @@
         <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -11593,7 +11595,7 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11605,7 +11607,7 @@
         <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -11614,7 +11616,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11626,16 +11628,16 @@
         <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11647,7 +11649,7 @@
         <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -11656,7 +11658,7 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11668,16 +11670,16 @@
         <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11689,16 +11691,16 @@
         <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11710,16 +11712,16 @@
         <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11731,16 +11733,16 @@
         <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11752,16 +11754,16 @@
         <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11773,16 +11775,16 @@
         <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11794,7 +11796,7 @@
         <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -11803,7 +11805,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11815,7 +11817,7 @@
         <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -11824,7 +11826,7 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11836,16 +11838,16 @@
         <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11857,16 +11859,16 @@
         <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11878,16 +11880,16 @@
         <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11899,16 +11901,16 @@
         <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11920,7 +11922,7 @@
         <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -11929,7 +11931,7 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11941,16 +11943,16 @@
         <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11962,16 +11964,16 @@
         <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -11983,16 +11985,16 @@
         <v>157</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12004,16 +12006,16 @@
         <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12025,16 +12027,16 @@
         <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12046,16 +12048,16 @@
         <v>366</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12067,16 +12069,16 @@
         <v>156</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12088,16 +12090,16 @@
         <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12109,16 +12111,16 @@
         <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12130,7 +12132,7 @@
         <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -12139,7 +12141,7 @@
         <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12151,16 +12153,16 @@
         <v>157</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12172,16 +12174,16 @@
         <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12193,7 +12195,7 @@
         <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -12202,7 +12204,7 @@
         <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12214,16 +12216,16 @@
         <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12235,16 +12237,16 @@
         <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12256,16 +12258,16 @@
         <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12277,16 +12279,16 @@
         <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12298,7 +12300,7 @@
         <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -12307,7 +12309,7 @@
         <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12319,16 +12321,16 @@
         <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12340,16 +12342,16 @@
         <v>151</v>
       </c>
       <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
         <v>38</v>
       </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" t="s">
-        <v>39</v>
-      </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12361,16 +12363,16 @@
         <v>151</v>
       </c>
       <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
         <v>38</v>
       </c>
-      <c r="C57" t="s">
-        <v>39</v>
-      </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12382,16 +12384,16 @@
         <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12403,7 +12405,7 @@
         <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -12412,7 +12414,7 @@
         <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12424,16 +12426,16 @@
         <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12445,7 +12447,7 @@
         <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -12454,7 +12456,7 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12466,16 +12468,16 @@
         <v>157</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12487,16 +12489,16 @@
         <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12508,7 +12510,7 @@
         <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -12517,7 +12519,7 @@
         <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12529,16 +12531,16 @@
         <v>141</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" ref="F65:F71" si="1">CONCATENATE(A65,B65,C65,D65)</f>
@@ -12550,16 +12552,16 @@
         <v>141</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12571,16 +12573,16 @@
         <v>141</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12592,16 +12594,16 @@
         <v>141</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12613,16 +12615,16 @@
         <v>141</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12634,16 +12636,16 @@
         <v>141</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12655,16 +12657,16 @@
         <v>141</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="1"/>
